--- a/output/ValueSet-nigeria-gender.xlsx
+++ b/output/ValueSet-nigeria-gender.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T09:24:42+01:00</t>
+    <t>2025-06-23T10:40:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-nigeria-gender.xlsx
+++ b/output/ValueSet-nigeria-gender.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T10:40:32+01:00</t>
+    <t>2025-06-23T11:00:10+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-nigeria-gender.xlsx
+++ b/output/ValueSet-nigeria-gender.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T11:00:10+01:00</t>
+    <t>2025-06-23T12:00:39+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-nigeria-gender.xlsx
+++ b/output/ValueSet-nigeria-gender.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:00:39+01:00</t>
+    <t>2025-06-23T12:11:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-nigeria-gender.xlsx
+++ b/output/ValueSet-nigeria-gender.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
-    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:11:34+01:00</t>
+    <t>2025-06-23T13:45:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,12 +97,6 @@
   </si>
   <si>
     <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>ValueSet URL</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/administrative-gender</t>
   </si>
   <si>
     <t>Codes</t>
@@ -391,7 +384,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,47 +404,20 @@
         <v>29</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>31</v>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-nigeria-gender.xlsx
+++ b/output/ValueSet-nigeria-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T13:45:54+01:00</t>
+    <t>2025-06-24T07:35:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-nigeria-gender.xlsx
+++ b/output/ValueSet-nigeria-gender.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Gender or Sex</t>
+    <t>NG-Imm Gender or Sex VS</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T07:35:37+01:00</t>
+    <t>2025-06-24T09:13:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-nigeria-gender.xlsx
+++ b/output/ValueSet-nigeria-gender.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://nphcda.gov.ng/ig/fhir/ValueSet/ng-gender</t>
+    <t>http://hl7.org/fhir/R4/valueset-administrative-gender</t>
   </si>
   <si>
     <t>Version</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T09:13:37+01:00</t>
+    <t>2025-06-25T06:29:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The administrative gender of a person.</t>
+    <t>Subset of HL7 administrative-gender limited to 'male' and 'female'.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>System URI</t>
-  </si>
-  <si>
-    <t>http://nphcda.gov.ng/ig/fhir/CodeSystem/ng-gender</t>
   </si>
 </sst>
 </file>
@@ -417,7 +414,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-nigeria-gender.xlsx
+++ b/output/ValueSet-nigeria-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-25T06:29:04+01:00</t>
+    <t>2025-06-25T15:41:07+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
